--- a/GF2m Arithmetic/GF2m_multiplier_statistics.xlsx
+++ b/GF2m Arithmetic/GF2m_multiplier_statistics.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,22 @@
   </si>
   <si>
     <t>x^131+x^8+x^3+x^2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^67+x^5+x^2+x+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^79+x^9+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^83+x^7+x^4+x^2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^97+x^6+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1660,4 +1677,604 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.CEILING.MATH(A2/C2)+1</f>
+        <v>68</v>
+      </c>
+      <c r="F2">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <v>145</v>
+      </c>
+      <c r="H2">
+        <v>277</v>
+      </c>
+      <c r="I2">
+        <f>F2*E2/D2</f>
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>280</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E24" si="0">_xlfn.CEILING.MATH(A3/C3)+1</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>129</v>
+      </c>
+      <c r="G3">
+        <v>339</v>
+      </c>
+      <c r="H3">
+        <v>279</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I24" si="1">F3*E3/D3</f>
+        <v>4.6071428571428568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>260</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>194</v>
+      </c>
+      <c r="G4">
+        <v>604</v>
+      </c>
+      <c r="H4">
+        <v>286</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4.476923076923077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>210</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>365</v>
+      </c>
+      <c r="G5">
+        <v>1216</v>
+      </c>
+      <c r="H5">
+        <v>301</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>6.9523809523809526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>420</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>106</v>
+      </c>
+      <c r="G8">
+        <v>172</v>
+      </c>
+      <c r="H8">
+        <v>325</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>20.19047619047619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>280</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>136</v>
+      </c>
+      <c r="G9">
+        <v>394</v>
+      </c>
+      <c r="H9">
+        <v>323</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>5.3428571428571425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>265</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>663</v>
+      </c>
+      <c r="H10">
+        <v>322</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.5283018867924527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>205</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>310</v>
+      </c>
+      <c r="G11">
+        <v>1133</v>
+      </c>
+      <c r="H11">
+        <v>337</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>6.0487804878048781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>185</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>671</v>
+      </c>
+      <c r="G12">
+        <v>2448</v>
+      </c>
+      <c r="H12">
+        <v>671</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>10.881081081081081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>400</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+      <c r="G14">
+        <v>179</v>
+      </c>
+      <c r="H14">
+        <v>341</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>139</v>
+      </c>
+      <c r="G15">
+        <v>380</v>
+      </c>
+      <c r="H15">
+        <v>343</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>6.5411764705882351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>83</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>215</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>233</v>
+      </c>
+      <c r="G16">
+        <v>702</v>
+      </c>
+      <c r="H16">
+        <v>350</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>7.5860465116279068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>190</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>408</v>
+      </c>
+      <c r="G17">
+        <v>1412</v>
+      </c>
+      <c r="H17">
+        <v>349</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>8.5894736842105264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>170</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>678</v>
+      </c>
+      <c r="G18">
+        <v>2463</v>
+      </c>
+      <c r="H18">
+        <v>380</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>11.964705882352941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F20">
+        <v>167</v>
+      </c>
+      <c r="G20">
+        <v>206</v>
+      </c>
+      <c r="H20">
+        <v>397</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>40.914999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>97</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>260</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>156</v>
+      </c>
+      <c r="G21">
+        <v>415</v>
+      </c>
+      <c r="H21">
+        <v>401</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>260</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>256</v>
+      </c>
+      <c r="G22">
+        <v>803</v>
+      </c>
+      <c r="H22">
+        <v>408</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>7.8769230769230774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>422</v>
+      </c>
+      <c r="G23">
+        <v>1463</v>
+      </c>
+      <c r="H23">
+        <v>423</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>180</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>881</v>
+      </c>
+      <c r="G24">
+        <v>2877</v>
+      </c>
+      <c r="H24">
+        <v>422</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>14.683333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I9" evalError="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>